--- a/Test Data/IT.xlsx
+++ b/Test Data/IT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F72AA8C-AE5C-4A57-9045-265BA61EEA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDA7109-0C55-41BA-B362-B6AFAC598FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="345" windowWidth="21600" windowHeight="11295" xr2:uid="{19ECBA3B-EBE7-4D91-B41E-91AD4894C203}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{19ECBA3B-EBE7-4D91-B41E-91AD4894C203}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
   <si>
     <t>Weekly IT Portal Amendment Reports</t>
   </si>
@@ -66,9 +66,6 @@
     <t>LLS Weekly Report</t>
   </si>
   <si>
-    <t>Weekly report for offline tablets and information screens</t>
-  </si>
-  <si>
     <t>Weekly Equals Report</t>
   </si>
   <si>
@@ -132,37 +129,49 @@
     <t xml:space="preserve">Data Verification &amp; Confirmation </t>
   </si>
   <si>
-    <t>vv</t>
-  </si>
-  <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>Calls</t>
-  </si>
-  <si>
-    <t>Emails</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-  <si>
-    <t>Meeting Minutes</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>Other Tasks</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Textarea</t>
+    <t xml:space="preserve">Training </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calls </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emails </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Minutes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Tasks </t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specify Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Type 1 For Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specify Task</t>
+  </si>
+  <si>
+    <t>Specify Site Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specify Duration in Mins</t>
+  </si>
+  <si>
+    <t>Specify Task</t>
+  </si>
+  <si>
+    <t>Specify In Brief</t>
+  </si>
+  <si>
+    <t>Weekly report for offline tablets and information screens</t>
   </si>
 </sst>
 </file>
@@ -186,18 +195,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -212,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,7 +223,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5104900E-A7F4-456F-8B70-2D41BBDAA4C4}">
   <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,207 +552,155 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
       <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>38</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -778,213 +728,156 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>16</v>
       </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
       <c r="C28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>27</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>41</v>
+      <c r="C38" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/IT.xlsx
+++ b/Test Data/IT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDA7109-0C55-41BA-B362-B6AFAC598FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C0E9D1-BCD5-4162-B4D0-2BE41012EA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{19ECBA3B-EBE7-4D91-B41E-91AD4894C203}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>Weekly IT Portal Amendment Reports</t>
   </si>
@@ -156,12 +156,6 @@
     <t xml:space="preserve"> Type 1 For Done</t>
   </si>
   <si>
-    <t xml:space="preserve"> Specify Task</t>
-  </si>
-  <si>
-    <t>Specify Site Count</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Specify Duration in Mins</t>
   </si>
   <si>
@@ -172,6 +166,15 @@
   </si>
   <si>
     <t>Weekly report for offline tablets and information screens</t>
+  </si>
+  <si>
+    <t>Specify Site Counts</t>
+  </si>
+  <si>
+    <t>Type 1 For Done</t>
+  </si>
+  <si>
+    <t>Specify Counts</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <dimension ref="A1:AD38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -611,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -619,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -627,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -643,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -651,7 +654,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -659,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -667,7 +670,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -675,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.25">
@@ -746,7 +749,7 @@
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
@@ -805,7 +808,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.25">
@@ -853,7 +856,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -869,7 +872,7 @@
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -877,7 +880,7 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
